--- a/Bon Blanko/Desa KarangAgung/Bon Blanko Karangagung (116).xlsx
+++ b/Bon Blanko/Desa KarangAgung/Bon Blanko Karangagung (116).xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="204">
   <si>
     <t>No</t>
   </si>
@@ -439,6 +437,195 @@
   </si>
   <si>
     <t>6212/2022</t>
+  </si>
+  <si>
+    <t>USUP SUPRIADI</t>
+  </si>
+  <si>
+    <t>5283/2022</t>
+  </si>
+  <si>
+    <t>SUKMANA RACHMAWATIE</t>
+  </si>
+  <si>
+    <t>ENDUNG PARIDAH</t>
+  </si>
+  <si>
+    <t>5290/2022</t>
+  </si>
+  <si>
+    <t>IHAT SOLIHAT</t>
+  </si>
+  <si>
+    <t>ENDANG SUTARMAN</t>
+  </si>
+  <si>
+    <t>6013/2022</t>
+  </si>
+  <si>
+    <t>AAH HODIJAH</t>
+  </si>
+  <si>
+    <t>AISAH</t>
+  </si>
+  <si>
+    <t>5291/2022</t>
+  </si>
+  <si>
+    <t>ARIP ROHIMAN</t>
+  </si>
+  <si>
+    <t>WAWAN</t>
+  </si>
+  <si>
+    <t>AEP</t>
+  </si>
+  <si>
+    <t>ENTUP</t>
+  </si>
+  <si>
+    <t>5284/2022</t>
+  </si>
+  <si>
+    <t>6014/2022</t>
+  </si>
+  <si>
+    <t>SOGUN ARDAT</t>
+  </si>
+  <si>
+    <t>IIM</t>
+  </si>
+  <si>
+    <t>DIMAS OKTAVIANI</t>
+  </si>
+  <si>
+    <t>5298/2022</t>
+  </si>
+  <si>
+    <t>JAJANG MAHMUDIN</t>
+  </si>
+  <si>
+    <t>IMAS MASITOH</t>
+  </si>
+  <si>
+    <t>JAJA SUMARNA</t>
+  </si>
+  <si>
+    <t>ANDRI ALAMSYAH</t>
+  </si>
+  <si>
+    <t>SAIDAH</t>
+  </si>
+  <si>
+    <t>5287/2022</t>
+  </si>
+  <si>
+    <t>RUKANA</t>
+  </si>
+  <si>
+    <t>PERDI HERDIANTO</t>
+  </si>
+  <si>
+    <t>OKON MARKONAH</t>
+  </si>
+  <si>
+    <t>YANI NURAENI</t>
+  </si>
+  <si>
+    <t>AHMAD IJI</t>
+  </si>
+  <si>
+    <t>HOPIPAH</t>
+  </si>
+  <si>
+    <t>5288/2022</t>
+  </si>
+  <si>
+    <t>CUCU TINQORYATI</t>
+  </si>
+  <si>
+    <t>ETI</t>
+  </si>
+  <si>
+    <t>JEJEN JAENUDIN</t>
+  </si>
+  <si>
+    <t>3062/2023</t>
+  </si>
+  <si>
+    <t>HERU HAERUDIN</t>
+  </si>
+  <si>
+    <t>1759/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SITI </t>
+  </si>
+  <si>
+    <t>5403/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUMASIH </t>
+  </si>
+  <si>
+    <t>3072/2023</t>
+  </si>
+  <si>
+    <t>MAMAN</t>
+  </si>
+  <si>
+    <t>1592/2023</t>
+  </si>
+  <si>
+    <t>IVA MASROFAH</t>
+  </si>
+  <si>
+    <t>6242/2022</t>
+  </si>
+  <si>
+    <t>6003/2022</t>
+  </si>
+  <si>
+    <t>ODAH</t>
+  </si>
+  <si>
+    <t>1577/2023</t>
+  </si>
+  <si>
+    <t>TITI</t>
+  </si>
+  <si>
+    <t>3052/2023</t>
+  </si>
+  <si>
+    <t>OOM</t>
+  </si>
+  <si>
+    <t>5275/2022</t>
+  </si>
+  <si>
+    <t>RINA SUMIYATI</t>
+  </si>
+  <si>
+    <t>5274/202</t>
+  </si>
+  <si>
+    <t>EMAY</t>
+  </si>
+  <si>
+    <t>5269/2022</t>
+  </si>
+  <si>
+    <t>SITI</t>
+  </si>
+  <si>
+    <t>6016/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOM </t>
+  </si>
+  <si>
+    <t>6030/2022</t>
   </si>
 </sst>
 </file>
@@ -953,7 +1140,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -968,6 +1155,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1310,10 +1498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:G175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G121" sqref="A121:G121"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H105" sqref="H105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2222,17 +2410,17 @@
       <c r="A50" s="2">
         <v>45</v>
       </c>
-      <c r="B50" s="3">
-        <v>106713</v>
+      <c r="B50" s="6">
+        <v>102508</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c r="E50" s="3">
-        <v>11582</v>
+        <v>11373</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -2241,17 +2429,17 @@
       <c r="A51" s="2">
         <v>46</v>
       </c>
-      <c r="B51" s="3">
-        <v>106716</v>
+      <c r="B51" s="6">
+        <v>102509</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="E51" s="3">
-        <v>11587</v>
+        <v>11373</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -2260,17 +2448,17 @@
       <c r="A52" s="2">
         <v>47</v>
       </c>
-      <c r="B52" s="3">
-        <v>106717</v>
+      <c r="B52" s="6">
+        <v>102511</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="E52" s="3">
-        <v>11607</v>
+        <v>11374</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -2279,17 +2467,17 @@
       <c r="A53" s="2">
         <v>48</v>
       </c>
-      <c r="B53" s="3">
-        <v>106718</v>
+      <c r="B53" s="6">
+        <v>102512</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="E53" s="3">
-        <v>11607</v>
+        <v>11374</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -2298,17 +2486,17 @@
       <c r="A54" s="2">
         <v>49</v>
       </c>
-      <c r="B54" s="3">
-        <v>106720</v>
+      <c r="B54" s="6">
+        <v>102513</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>73</v>
+        <v>148</v>
       </c>
       <c r="E54" s="3">
-        <v>11608</v>
+        <v>11375</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -2317,17 +2505,17 @@
       <c r="A55" s="2">
         <v>50</v>
       </c>
-      <c r="B55" s="3">
-        <v>106722</v>
+      <c r="B55" s="6">
+        <v>102514</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="E55" s="3">
-        <v>11609</v>
+        <v>11375</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -2336,17 +2524,17 @@
       <c r="A56" s="2">
         <v>51</v>
       </c>
-      <c r="B56" s="3">
-        <v>106729</v>
+      <c r="B56" s="6">
+        <v>102515</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="E56" s="3">
-        <v>11612</v>
+        <v>11375</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -2355,17 +2543,17 @@
       <c r="A57" s="2">
         <v>52</v>
       </c>
-      <c r="B57" s="3">
-        <v>106731</v>
+      <c r="B57" s="6">
+        <v>102516</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="E57" s="3">
-        <v>11613</v>
+        <v>11376</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -2374,17 +2562,17 @@
       <c r="A58" s="2">
         <v>53</v>
       </c>
-      <c r="B58" s="3">
-        <v>106734</v>
+      <c r="B58" s="6">
+        <v>102517</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="E58" s="3">
-        <v>11613</v>
+        <v>11375</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -2393,17 +2581,17 @@
       <c r="A59" s="2">
         <v>54</v>
       </c>
-      <c r="B59" s="3">
-        <v>106738</v>
+      <c r="B59" s="6">
+        <v>102518</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="E59" s="3">
-        <v>11614</v>
+        <v>11375</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -2412,17 +2600,17 @@
       <c r="A60" s="2">
         <v>55</v>
       </c>
-      <c r="B60" s="3">
-        <v>106739</v>
+      <c r="B60" s="6">
+        <v>102519</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="E60" s="3">
-        <v>11614</v>
+        <v>11375</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -2431,17 +2619,17 @@
       <c r="A61" s="2">
         <v>56</v>
       </c>
-      <c r="B61" s="3">
-        <v>106741</v>
+      <c r="B61" s="6">
+        <v>102520</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="E61" s="3">
-        <v>11615</v>
+        <v>11375</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -2450,17 +2638,17 @@
       <c r="A62" s="2">
         <v>57</v>
       </c>
-      <c r="B62" s="3">
-        <v>106742</v>
+      <c r="B62" s="6">
+        <v>102521</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>85</v>
+        <v>154</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="E62" s="3">
-        <v>11615</v>
+        <v>11375</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
@@ -2469,17 +2657,17 @@
       <c r="A63" s="2">
         <v>58</v>
       </c>
-      <c r="B63" s="3">
-        <v>106743</v>
+      <c r="B63" s="6">
+        <v>102522</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>84</v>
+        <v>156</v>
       </c>
       <c r="E63" s="3">
-        <v>11615</v>
+        <v>11377</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -2488,17 +2676,17 @@
       <c r="A64" s="2">
         <v>59</v>
       </c>
-      <c r="B64" s="3">
-        <v>106747</v>
+      <c r="B64" s="6">
+        <v>102523</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="E64" s="3">
-        <v>11616</v>
+        <v>11377</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -2507,17 +2695,17 @@
       <c r="A65" s="2">
         <v>60</v>
       </c>
-      <c r="B65" s="3">
-        <v>106749</v>
+      <c r="B65" s="6">
+        <v>102524</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="E65" s="3">
-        <v>11617</v>
+        <v>11378</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
@@ -2526,17 +2714,17 @@
       <c r="A66" s="2">
         <v>61</v>
       </c>
-      <c r="B66" s="3">
-        <v>106750</v>
+      <c r="B66" s="6">
+        <v>102525</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="E66" s="3">
-        <v>11617</v>
+        <v>11378</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
@@ -2545,17 +2733,17 @@
       <c r="A67" s="2">
         <v>62</v>
       </c>
-      <c r="B67" s="3">
-        <v>106751</v>
+      <c r="B67" s="6">
+        <v>102526</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="E67" s="3">
-        <v>11617</v>
+        <v>11378</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
@@ -2564,17 +2752,17 @@
       <c r="A68" s="2">
         <v>63</v>
       </c>
-      <c r="B68" s="3">
-        <v>106752</v>
+      <c r="B68" s="6">
+        <v>102528</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="E68" s="3">
-        <v>11617</v>
+        <v>11378</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -2583,17 +2771,17 @@
       <c r="A69" s="2">
         <v>64</v>
       </c>
-      <c r="B69" s="3">
-        <v>106753</v>
+      <c r="B69" s="6">
+        <v>102529</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="E69" s="3">
-        <v>11617</v>
+        <v>11378</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -2602,17 +2790,17 @@
       <c r="A70" s="2">
         <v>65</v>
       </c>
-      <c r="B70" s="3">
-        <v>106754</v>
+      <c r="B70" s="6">
+        <v>102530</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="E70" s="3">
-        <v>11617</v>
+        <v>11378</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
@@ -2621,17 +2809,17 @@
       <c r="A71" s="2">
         <v>66</v>
       </c>
-      <c r="B71" s="3">
-        <v>106755</v>
+      <c r="B71" s="6">
+        <v>102531</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="E71" s="3">
-        <v>11617</v>
+        <v>11378</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
@@ -2640,17 +2828,17 @@
       <c r="A72" s="2">
         <v>67</v>
       </c>
-      <c r="B72" s="3">
-        <v>106756</v>
+      <c r="B72" s="6">
+        <v>102532</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
       <c r="E72" s="3">
-        <v>11618</v>
+        <v>11379</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -2659,17 +2847,17 @@
       <c r="A73" s="2">
         <v>68</v>
       </c>
-      <c r="B73" s="3">
-        <v>106757</v>
+      <c r="B73" s="6">
+        <v>102533</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
       <c r="E73" s="3">
-        <v>11618</v>
+        <v>11379</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
@@ -2678,17 +2866,17 @@
       <c r="A74" s="2">
         <v>69</v>
       </c>
-      <c r="B74" s="3">
-        <v>106778</v>
+      <c r="B74" s="6">
+        <v>102534</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>96</v>
+        <v>163</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="E74" s="3">
-        <v>11619</v>
+        <v>11379</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2697,17 +2885,17 @@
       <c r="A75" s="2">
         <v>70</v>
       </c>
-      <c r="B75" s="3">
-        <v>106803</v>
+      <c r="B75" s="6">
+        <v>102535</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="E75" s="3">
-        <v>11637</v>
+        <v>11379</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -2716,17 +2904,17 @@
       <c r="A76" s="2">
         <v>71</v>
       </c>
-      <c r="B76" s="3">
-        <v>106804</v>
+      <c r="B76" s="6">
+        <v>102536</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="E76" s="3">
-        <v>11637</v>
+        <v>11379</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
@@ -2735,17 +2923,17 @@
       <c r="A77" s="2">
         <v>72</v>
       </c>
-      <c r="B77" s="3">
-        <v>131409</v>
+      <c r="B77" s="6">
+        <v>102537</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>102</v>
+        <v>167</v>
       </c>
       <c r="E77" s="3">
-        <v>12575</v>
+        <v>11380</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
@@ -2754,17 +2942,17 @@
       <c r="A78" s="2">
         <v>73</v>
       </c>
-      <c r="B78" s="3">
-        <v>131411</v>
+      <c r="B78" s="6">
+        <v>102538</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>102</v>
+        <v>167</v>
       </c>
       <c r="E78" s="3">
-        <v>12575</v>
+        <v>11380</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
@@ -2773,17 +2961,17 @@
       <c r="A79" s="2">
         <v>74</v>
       </c>
-      <c r="B79" s="3">
-        <v>131413</v>
+      <c r="B79" s="6">
+        <v>102539</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>102</v>
+        <v>167</v>
       </c>
       <c r="E79" s="3">
-        <v>12575</v>
+        <v>11380</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
@@ -2792,17 +2980,17 @@
       <c r="A80" s="2">
         <v>75</v>
       </c>
-      <c r="B80" s="3">
-        <v>131414</v>
+      <c r="B80" s="6">
+        <v>102540</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>102</v>
+        <v>167</v>
       </c>
       <c r="E80" s="3">
-        <v>12575</v>
+        <v>11380</v>
       </c>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
@@ -2811,17 +2999,17 @@
       <c r="A81" s="2">
         <v>76</v>
       </c>
-      <c r="B81" s="3">
-        <v>131415</v>
+      <c r="B81" s="6">
+        <v>102541</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>102</v>
+        <v>167</v>
       </c>
       <c r="E81" s="3">
-        <v>12575</v>
+        <v>11380</v>
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
@@ -2830,17 +3018,17 @@
       <c r="A82" s="2">
         <v>77</v>
       </c>
-      <c r="B82" s="3">
-        <v>131430</v>
+      <c r="B82" s="6">
+        <v>102542</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>108</v>
+        <v>167</v>
       </c>
       <c r="E82" s="3">
-        <v>12576</v>
+        <v>11380</v>
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
@@ -2849,17 +3037,17 @@
       <c r="A83" s="2">
         <v>78</v>
       </c>
-      <c r="B83" s="3">
-        <v>131432</v>
+      <c r="B83" s="6">
+        <v>102543</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="E83" s="3">
-        <v>12576</v>
+        <v>11381</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
@@ -2868,17 +3056,17 @@
       <c r="A84" s="2">
         <v>79</v>
       </c>
-      <c r="B84" s="3">
-        <v>131433</v>
+      <c r="B84" s="6">
+        <v>102544</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="E84" s="3">
-        <v>12576</v>
+        <v>11381</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2887,17 +3075,17 @@
       <c r="A85" s="2">
         <v>80</v>
       </c>
-      <c r="B85" s="3">
-        <v>131434</v>
+      <c r="B85" s="6">
+        <v>102545</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E85" s="3">
-        <v>12576</v>
+        <v>11382</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
@@ -2906,17 +3094,17 @@
       <c r="A86" s="2">
         <v>81</v>
       </c>
-      <c r="B86" s="3">
-        <v>131435</v>
+      <c r="B86" s="6">
+        <v>102547</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>111</v>
+        <v>176</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E86" s="3">
-        <v>12576</v>
+        <v>11382</v>
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
@@ -2925,17 +3113,17 @@
       <c r="A87" s="2">
         <v>82</v>
       </c>
-      <c r="B87" s="3">
-        <v>131436</v>
+      <c r="B87" s="6">
+        <v>102550</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E87" s="3">
-        <v>12576</v>
+        <v>11382</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
@@ -2944,17 +3132,17 @@
       <c r="A88" s="2">
         <v>83</v>
       </c>
-      <c r="B88" s="3">
-        <v>131546</v>
+      <c r="B88" s="6">
+        <v>102552</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="E88" s="3">
-        <v>12577</v>
+        <v>11382</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
@@ -2963,17 +3151,17 @@
       <c r="A89" s="2">
         <v>84</v>
       </c>
-      <c r="B89" s="3">
-        <v>131547</v>
+      <c r="B89" s="6">
+        <v>102553</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="E89" s="3">
-        <v>12577</v>
+        <v>11383</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
@@ -2982,17 +3170,17 @@
       <c r="A90" s="2">
         <v>85</v>
       </c>
-      <c r="B90" s="3">
-        <v>131549</v>
+      <c r="B90" s="6">
+        <v>102561</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="E90" s="3">
-        <v>12577</v>
+        <v>11388</v>
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
@@ -3001,17 +3189,17 @@
       <c r="A91" s="2">
         <v>86</v>
       </c>
-      <c r="B91" s="3">
-        <v>131550</v>
+      <c r="B91" s="6">
+        <v>102570</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>113</v>
+        <v>182</v>
       </c>
       <c r="E91" s="3">
-        <v>12577</v>
+        <v>12880</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
@@ -3020,17 +3208,17 @@
       <c r="A92" s="2">
         <v>87</v>
       </c>
-      <c r="B92" s="3">
-        <v>131551</v>
+      <c r="B92" s="6">
+        <v>102601</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>113</v>
+        <v>184</v>
       </c>
       <c r="E92" s="3">
-        <v>12577</v>
+        <v>12881</v>
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
@@ -3039,17 +3227,17 @@
       <c r="A93" s="2">
         <v>88</v>
       </c>
-      <c r="B93" s="3">
-        <v>131552</v>
+      <c r="B93" s="6">
+        <v>102646</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>118</v>
+        <v>185</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>113</v>
+        <v>186</v>
       </c>
       <c r="E93" s="3">
-        <v>12577</v>
+        <v>12882</v>
       </c>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
@@ -3058,17 +3246,17 @@
       <c r="A94" s="2">
         <v>89</v>
       </c>
-      <c r="B94" s="3">
-        <v>131553</v>
+      <c r="B94" s="6">
+        <v>102999</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>119</v>
+        <v>187</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>113</v>
+        <v>188</v>
       </c>
       <c r="E94" s="3">
-        <v>12577</v>
+        <v>12883</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -3077,17 +3265,17 @@
       <c r="A95" s="2">
         <v>90</v>
       </c>
-      <c r="B95" s="3">
-        <v>131560</v>
+      <c r="B95" s="6">
+        <v>103035</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c r="E95" s="3">
-        <v>12577</v>
+        <v>12884</v>
       </c>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
@@ -3096,17 +3284,17 @@
       <c r="A96" s="2">
         <v>91</v>
       </c>
-      <c r="B96" s="3">
-        <v>131561</v>
+      <c r="B96" s="6">
+        <v>103103</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="E96" s="3">
-        <v>12577</v>
+        <v>12885</v>
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
@@ -3115,17 +3303,17 @@
       <c r="A97" s="2">
         <v>92</v>
       </c>
-      <c r="B97" s="3">
-        <v>131563</v>
+      <c r="B97" s="6">
+        <v>104460</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>112</v>
+        <v>192</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>113</v>
+        <v>193</v>
       </c>
       <c r="E97" s="3">
-        <v>12577</v>
+        <v>12886</v>
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
@@ -3134,17 +3322,17 @@
       <c r="A98" s="2">
         <v>93</v>
       </c>
-      <c r="B98" s="3">
-        <v>131564</v>
+      <c r="B98" s="6">
+        <v>104463</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>113</v>
+        <v>193</v>
       </c>
       <c r="E98" s="3">
-        <v>12577</v>
+        <v>12886</v>
       </c>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
@@ -3153,17 +3341,17 @@
       <c r="A99" s="2">
         <v>94</v>
       </c>
-      <c r="B99" s="3">
-        <v>131566</v>
+      <c r="B99" s="6">
+        <v>105605</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>122</v>
+        <v>194</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>113</v>
+        <v>195</v>
       </c>
       <c r="E99" s="3">
-        <v>12577</v>
+        <v>12887</v>
       </c>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
@@ -3172,17 +3360,17 @@
       <c r="A100" s="2">
         <v>95</v>
       </c>
-      <c r="B100" s="3">
-        <v>131567</v>
+      <c r="B100" s="6">
+        <v>105730</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>123</v>
+        <v>196</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>113</v>
+        <v>197</v>
       </c>
       <c r="E100" s="3">
-        <v>12577</v>
+        <v>12888</v>
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
@@ -3191,17 +3379,17 @@
       <c r="A101" s="2">
         <v>96</v>
       </c>
-      <c r="B101" s="3">
-        <v>131568</v>
+      <c r="B101" s="6">
+        <v>105770</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="E101" s="3">
-        <v>12577</v>
+        <v>12889</v>
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
@@ -3210,17 +3398,17 @@
       <c r="A102" s="2">
         <v>97</v>
       </c>
-      <c r="B102" s="3">
-        <v>131570</v>
+      <c r="B102" s="6">
+        <v>105799</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>118</v>
+        <v>200</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>113</v>
+        <v>201</v>
       </c>
       <c r="E102" s="3">
-        <v>12577</v>
+        <v>12890</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
@@ -3229,17 +3417,17 @@
       <c r="A103" s="2">
         <v>98</v>
       </c>
-      <c r="B103" s="3">
-        <v>131571</v>
+      <c r="B103" s="6">
+        <v>105826</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>120</v>
+        <v>202</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
       <c r="E103" s="3">
-        <v>12577</v>
+        <v>12891</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
@@ -3249,16 +3437,16 @@
         <v>99</v>
       </c>
       <c r="B104" s="3">
-        <v>131574</v>
+        <v>106713</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="E104" s="3">
-        <v>12578</v>
+        <v>11582</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -3268,16 +3456,16 @@
         <v>100</v>
       </c>
       <c r="B105" s="3">
-        <v>131576</v>
+        <v>106716</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="E105" s="3">
-        <v>12578</v>
+        <v>11587</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
@@ -3287,16 +3475,16 @@
         <v>101</v>
       </c>
       <c r="B106" s="3">
-        <v>131577</v>
+        <v>106717</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="E106" s="3">
-        <v>12578</v>
+        <v>11607</v>
       </c>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
@@ -3306,16 +3494,16 @@
         <v>102</v>
       </c>
       <c r="B107" s="3">
-        <v>131578</v>
+        <v>106718</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="E107" s="3">
-        <v>12578</v>
+        <v>11607</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
@@ -3325,16 +3513,16 @@
         <v>103</v>
       </c>
       <c r="B108" s="3">
-        <v>131579</v>
+        <v>106720</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="E108" s="3">
-        <v>12578</v>
+        <v>11608</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
@@ -3344,16 +3532,16 @@
         <v>104</v>
       </c>
       <c r="B109" s="3">
-        <v>131580</v>
+        <v>106722</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="E109" s="3">
-        <v>12578</v>
+        <v>11609</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
@@ -3363,16 +3551,16 @@
         <v>105</v>
       </c>
       <c r="B110" s="3">
-        <v>131581</v>
+        <v>106729</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="E110" s="3">
-        <v>12578</v>
+        <v>11612</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
@@ -3382,16 +3570,16 @@
         <v>106</v>
       </c>
       <c r="B111" s="3">
-        <v>131583</v>
+        <v>106731</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="E111" s="3">
-        <v>12578</v>
+        <v>11613</v>
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
@@ -3401,16 +3589,16 @@
         <v>107</v>
       </c>
       <c r="B112" s="3">
-        <v>131584</v>
+        <v>106734</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="E112" s="3">
-        <v>12578</v>
+        <v>11613</v>
       </c>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
@@ -3420,16 +3608,16 @@
         <v>108</v>
       </c>
       <c r="B113" s="3">
-        <v>131585</v>
+        <v>106738</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="E113" s="3">
-        <v>12578</v>
+        <v>11614</v>
       </c>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
@@ -3439,16 +3627,16 @@
         <v>109</v>
       </c>
       <c r="B114" s="3">
-        <v>131586</v>
+        <v>106739</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="E114" s="3">
-        <v>12578</v>
+        <v>11614</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3458,16 +3646,16 @@
         <v>110</v>
       </c>
       <c r="B115" s="3">
-        <v>131587</v>
+        <v>106741</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="E115" s="3">
-        <v>12578</v>
+        <v>11615</v>
       </c>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
@@ -3477,16 +3665,16 @@
         <v>111</v>
       </c>
       <c r="B116" s="3">
-        <v>131590</v>
+        <v>106742</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="E116" s="3">
-        <v>12579</v>
+        <v>11615</v>
       </c>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
@@ -3496,16 +3684,16 @@
         <v>112</v>
       </c>
       <c r="B117" s="3">
-        <v>131592</v>
+        <v>106743</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="E117" s="3">
-        <v>12579</v>
+        <v>11615</v>
       </c>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
@@ -3515,16 +3703,16 @@
         <v>113</v>
       </c>
       <c r="B118" s="3">
-        <v>131593</v>
+        <v>106747</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="E118" s="3">
-        <v>12579</v>
+        <v>11616</v>
       </c>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
@@ -3534,16 +3722,16 @@
         <v>114</v>
       </c>
       <c r="B119" s="3">
-        <v>131594</v>
+        <v>106749</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="E119" s="3">
-        <v>12580</v>
+        <v>11617</v>
       </c>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
@@ -3553,16 +3741,16 @@
         <v>115</v>
       </c>
       <c r="B120" s="3">
-        <v>131595</v>
+        <v>106750</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="E120" s="3">
-        <v>12580</v>
+        <v>11617</v>
       </c>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
@@ -3572,23 +3760,1049 @@
         <v>116</v>
       </c>
       <c r="B121" s="3">
-        <v>131598</v>
+        <v>106751</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="E121" s="3">
-        <v>12581</v>
+        <v>11617</v>
       </c>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
     </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>117</v>
+      </c>
+      <c r="B122" s="3">
+        <v>106752</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E122" s="3">
+        <v>11617</v>
+      </c>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>118</v>
+      </c>
+      <c r="B123" s="3">
+        <v>106753</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E123" s="3">
+        <v>11617</v>
+      </c>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>119</v>
+      </c>
+      <c r="B124" s="3">
+        <v>106754</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E124" s="3">
+        <v>11617</v>
+      </c>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>120</v>
+      </c>
+      <c r="B125" s="3">
+        <v>106755</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E125" s="3">
+        <v>11617</v>
+      </c>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>121</v>
+      </c>
+      <c r="B126" s="3">
+        <v>106756</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E126" s="3">
+        <v>11618</v>
+      </c>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>122</v>
+      </c>
+      <c r="B127" s="3">
+        <v>106757</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E127" s="3">
+        <v>11618</v>
+      </c>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>123</v>
+      </c>
+      <c r="B128" s="3">
+        <v>106778</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E128" s="3">
+        <v>11619</v>
+      </c>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>124</v>
+      </c>
+      <c r="B129" s="3">
+        <v>106803</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E129" s="3">
+        <v>11637</v>
+      </c>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>125</v>
+      </c>
+      <c r="B130" s="3">
+        <v>106804</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E130" s="3">
+        <v>11637</v>
+      </c>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>126</v>
+      </c>
+      <c r="B131" s="3">
+        <v>131409</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E131" s="3">
+        <v>12575</v>
+      </c>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>127</v>
+      </c>
+      <c r="B132" s="3">
+        <v>131411</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E132" s="3">
+        <v>12575</v>
+      </c>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>128</v>
+      </c>
+      <c r="B133" s="3">
+        <v>131413</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E133" s="3">
+        <v>12575</v>
+      </c>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>129</v>
+      </c>
+      <c r="B134" s="3">
+        <v>131414</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E134" s="3">
+        <v>12575</v>
+      </c>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>130</v>
+      </c>
+      <c r="B135" s="3">
+        <v>131415</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E135" s="3">
+        <v>12575</v>
+      </c>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>131</v>
+      </c>
+      <c r="B136" s="3">
+        <v>131430</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E136" s="3">
+        <v>12576</v>
+      </c>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>132</v>
+      </c>
+      <c r="B137" s="3">
+        <v>131432</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E137" s="3">
+        <v>12576</v>
+      </c>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>133</v>
+      </c>
+      <c r="B138" s="3">
+        <v>131433</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E138" s="3">
+        <v>12576</v>
+      </c>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>134</v>
+      </c>
+      <c r="B139" s="3">
+        <v>131434</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E139" s="3">
+        <v>12576</v>
+      </c>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>135</v>
+      </c>
+      <c r="B140" s="3">
+        <v>131435</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E140" s="3">
+        <v>12576</v>
+      </c>
+      <c r="F140" s="3"/>
+      <c r="G140" s="3"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>136</v>
+      </c>
+      <c r="B141" s="3">
+        <v>131436</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E141" s="3">
+        <v>12576</v>
+      </c>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>137</v>
+      </c>
+      <c r="B142" s="3">
+        <v>131546</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E142" s="3">
+        <v>12577</v>
+      </c>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>138</v>
+      </c>
+      <c r="B143" s="3">
+        <v>131547</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E143" s="3">
+        <v>12577</v>
+      </c>
+      <c r="F143" s="3"/>
+      <c r="G143" s="3"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>139</v>
+      </c>
+      <c r="B144" s="3">
+        <v>131549</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E144" s="3">
+        <v>12577</v>
+      </c>
+      <c r="F144" s="3"/>
+      <c r="G144" s="3"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>140</v>
+      </c>
+      <c r="B145" s="3">
+        <v>131550</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E145" s="3">
+        <v>12577</v>
+      </c>
+      <c r="F145" s="3"/>
+      <c r="G145" s="3"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>141</v>
+      </c>
+      <c r="B146" s="3">
+        <v>131551</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E146" s="3">
+        <v>12577</v>
+      </c>
+      <c r="F146" s="3"/>
+      <c r="G146" s="3"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>142</v>
+      </c>
+      <c r="B147" s="3">
+        <v>131552</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E147" s="3">
+        <v>12577</v>
+      </c>
+      <c r="F147" s="3"/>
+      <c r="G147" s="3"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>143</v>
+      </c>
+      <c r="B148" s="3">
+        <v>131553</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E148" s="3">
+        <v>12577</v>
+      </c>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>144</v>
+      </c>
+      <c r="B149" s="3">
+        <v>131560</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E149" s="3">
+        <v>12577</v>
+      </c>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>145</v>
+      </c>
+      <c r="B150" s="3">
+        <v>131561</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E150" s="3">
+        <v>12577</v>
+      </c>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>146</v>
+      </c>
+      <c r="B151" s="3">
+        <v>131563</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E151" s="3">
+        <v>12577</v>
+      </c>
+      <c r="F151" s="3"/>
+      <c r="G151" s="3"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>147</v>
+      </c>
+      <c r="B152" s="3">
+        <v>131564</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E152" s="3">
+        <v>12577</v>
+      </c>
+      <c r="F152" s="3"/>
+      <c r="G152" s="3"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>148</v>
+      </c>
+      <c r="B153" s="3">
+        <v>131566</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E153" s="3">
+        <v>12577</v>
+      </c>
+      <c r="F153" s="3"/>
+      <c r="G153" s="3"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>149</v>
+      </c>
+      <c r="B154" s="3">
+        <v>131567</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E154" s="3">
+        <v>12577</v>
+      </c>
+      <c r="F154" s="3"/>
+      <c r="G154" s="3"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>150</v>
+      </c>
+      <c r="B155" s="3">
+        <v>131568</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E155" s="3">
+        <v>12577</v>
+      </c>
+      <c r="F155" s="3"/>
+      <c r="G155" s="3"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>151</v>
+      </c>
+      <c r="B156" s="3">
+        <v>131570</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E156" s="3">
+        <v>12577</v>
+      </c>
+      <c r="F156" s="3"/>
+      <c r="G156" s="3"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>152</v>
+      </c>
+      <c r="B157" s="3">
+        <v>131571</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E157" s="3">
+        <v>12577</v>
+      </c>
+      <c r="F157" s="3"/>
+      <c r="G157" s="3"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>153</v>
+      </c>
+      <c r="B158" s="3">
+        <v>131574</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E158" s="3">
+        <v>12578</v>
+      </c>
+      <c r="F158" s="3"/>
+      <c r="G158" s="3"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>154</v>
+      </c>
+      <c r="B159" s="3">
+        <v>131576</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E159" s="3">
+        <v>12578</v>
+      </c>
+      <c r="F159" s="3"/>
+      <c r="G159" s="3"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>155</v>
+      </c>
+      <c r="B160" s="3">
+        <v>131577</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E160" s="3">
+        <v>12578</v>
+      </c>
+      <c r="F160" s="3"/>
+      <c r="G160" s="3"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>156</v>
+      </c>
+      <c r="B161" s="3">
+        <v>131578</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E161" s="3">
+        <v>12578</v>
+      </c>
+      <c r="F161" s="3"/>
+      <c r="G161" s="3"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>157</v>
+      </c>
+      <c r="B162" s="3">
+        <v>131579</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E162" s="3">
+        <v>12578</v>
+      </c>
+      <c r="F162" s="3"/>
+      <c r="G162" s="3"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>158</v>
+      </c>
+      <c r="B163" s="3">
+        <v>131580</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E163" s="3">
+        <v>12578</v>
+      </c>
+      <c r="F163" s="3"/>
+      <c r="G163" s="3"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>159</v>
+      </c>
+      <c r="B164" s="3">
+        <v>131581</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E164" s="3">
+        <v>12578</v>
+      </c>
+      <c r="F164" s="3"/>
+      <c r="G164" s="3"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>160</v>
+      </c>
+      <c r="B165" s="3">
+        <v>131583</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E165" s="3">
+        <v>12578</v>
+      </c>
+      <c r="F165" s="3"/>
+      <c r="G165" s="3"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>161</v>
+      </c>
+      <c r="B166" s="3">
+        <v>131584</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E166" s="3">
+        <v>12578</v>
+      </c>
+      <c r="F166" s="3"/>
+      <c r="G166" s="3"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>162</v>
+      </c>
+      <c r="B167" s="3">
+        <v>131585</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E167" s="3">
+        <v>12578</v>
+      </c>
+      <c r="F167" s="3"/>
+      <c r="G167" s="3"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <v>163</v>
+      </c>
+      <c r="B168" s="3">
+        <v>131586</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E168" s="3">
+        <v>12578</v>
+      </c>
+      <c r="F168" s="3"/>
+      <c r="G168" s="3"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>164</v>
+      </c>
+      <c r="B169" s="3">
+        <v>131587</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E169" s="3">
+        <v>12578</v>
+      </c>
+      <c r="F169" s="3"/>
+      <c r="G169" s="3"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>165</v>
+      </c>
+      <c r="B170" s="3">
+        <v>131590</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E170" s="3">
+        <v>12579</v>
+      </c>
+      <c r="F170" s="3"/>
+      <c r="G170" s="3"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <v>166</v>
+      </c>
+      <c r="B171" s="3">
+        <v>131592</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E171" s="3">
+        <v>12579</v>
+      </c>
+      <c r="F171" s="3"/>
+      <c r="G171" s="3"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>167</v>
+      </c>
+      <c r="B172" s="3">
+        <v>131593</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E172" s="3">
+        <v>12579</v>
+      </c>
+      <c r="F172" s="3"/>
+      <c r="G172" s="3"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
+        <v>168</v>
+      </c>
+      <c r="B173" s="3">
+        <v>131594</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E173" s="3">
+        <v>12580</v>
+      </c>
+      <c r="F173" s="3"/>
+      <c r="G173" s="3"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>169</v>
+      </c>
+      <c r="B174" s="3">
+        <v>131595</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E174" s="3">
+        <v>12580</v>
+      </c>
+      <c r="F174" s="3"/>
+      <c r="G174" s="3"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>170</v>
+      </c>
+      <c r="B175" s="3">
+        <v>131598</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E175" s="3">
+        <v>12581</v>
+      </c>
+      <c r="F175" s="3"/>
+      <c r="G175" s="3"/>
+    </row>
   </sheetData>
-  <sortState ref="B6:B121">
-    <sortCondition ref="B122"/>
+  <sortState ref="B6:F175">
+    <sortCondition ref="B5"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="A1:F2"/>
@@ -3597,28 +4811,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>